--- a/biology/Botanique/Olea_guangxiensis/Olea_guangxiensis.xlsx
+++ b/biology/Botanique/Olea_guangxiensis/Olea_guangxiensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olea guangxiensis B. M. Miao, Guihaia.  est un végétal appartenant au genre Olea (en langue chinoise translittérée : guang xi mu xi lan). C'est un arbuste qui pousse en Chine.
 </t>
@@ -513,14 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est un arbrisseau un petit arbre de 1 à 4 m de haut. Il est glabre. Les petites branches sont lenticellées.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbrisseau un petit arbre de 1 à 4 m de haut. Il est glabre. Les petites branches sont lenticellées.
 Le pétiole mesure de 2 à 7 mm. Le limbe de la feuille est lancéoloé ou elliptique allongé, (6-)9 à 23 par (2.5-)3 à 8 cm, coriace, la base est acuminée, la marge est irrégulièrement dentelée ou rarement entière avec un apex acuminé. Les nervures primaires sont au nombre de 6 à 10 de chaque côté de la nervure axiale, déprimée selon l'axe, saillante sur la face inférieure, s'incurvant près de la marge.
-Appareil reproducteur
-Les panicules sont axillaires, de 1,5 à 2 cm. Le pédicelle de la fleur mesure 1 à 2 mm. Le calice a un diamètre de 1,7 mm, pointillé avec des écailles peltées. La corolle mesure 2 mm de diamètre ; les lobes sont longs elliptiques.
-Les fruits sont des drupes de couleur bleue ou noires, subsphériques, de 1 à 1,5 cm de diamètre. La floraison est en mai, la fructification est en août-décembre.
-Répartition géographique
-En Chine, on le trouve dans les forêts humides ou les sommets de montagnes. On le rencontre dans les provinces de Guangdong, Guangxi, et dans le sud-est de Guizhou.
 </t>
         </is>
       </c>
@@ -546,12 +558,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Taxonomie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon le site Plant List[1], Olea guangxiensis (广西木犀榄) serait un synonyme d'Olea salicifolia (喜马木犀榄). La Flore de Chine (1996, 15:295-298)[2] distingue les deux taxons et donne dans sa clef de détermination les critères permettant de les distinguer.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les panicules sont axillaires, de 1,5 à 2 cm. Le pédicelle de la fleur mesure 1 à 2 mm. Le calice a un diamètre de 1,7 mm, pointillé avec des écailles peltées. La corolle mesure 2 mm de diamètre ; les lobes sont longs elliptiques.
+Les fruits sont des drupes de couleur bleue ou noires, subsphériques, de 1 à 1,5 cm de diamètre. La floraison est en mai, la fructification est en août-décembre.
 </t>
         </is>
       </c>
@@ -577,10 +596,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Utilisations</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Chine, on le trouve dans les forêts humides ou les sommets de montagnes. On le rencontre dans les provinces de Guangdong, Guangxi, et dans le sud-est de Guizhou.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,10 +633,73 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le site Plant List, Olea guangxiensis (广西木犀榄) serait un synonyme d'Olea salicifolia (喜马木犀榄). La Flore de Chine (1996, 15:295-298) distingue les deux taxons et donne dans sa clef de détermination les critères permettant de les distinguer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Olea_guangxiensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_guangxiensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Olea_guangxiensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_guangxiensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
